--- a/static/Models/Regression/Equation/Real Estate.xlsx
+++ b/static/Models/Regression/Equation/Real Estate.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02443540096282959</v>
+        <v>0.02287708222866058</v>
       </c>
       <c r="C2">
-        <v>-0.06144942715764046</v>
+        <v>-0.05729381740093231</v>
       </c>
       <c r="D2">
-        <v>0.07793126255273819</v>
+        <v>0.07952720671892166</v>
       </c>
       <c r="E2">
-        <v>-0.03191689029335976</v>
+        <v>-0.03788834437727928</v>
       </c>
       <c r="F2">
-        <v>-0.001535922521725297</v>
+        <v>-0.003056481247767806</v>
       </c>
       <c r="G2">
-        <v>0.0527971163392067</v>
+        <v>0.05242637544870377</v>
       </c>
       <c r="H2">
-        <v>-0.01779970340430737</v>
+        <v>-0.01395959965884686</v>
       </c>
       <c r="I2">
-        <v>-0.01538693718612194</v>
+        <v>-0.0157062541693449</v>
       </c>
       <c r="J2">
-        <v>-0.0864574983716011</v>
+        <v>-0.08861643821001053</v>
       </c>
       <c r="K2">
-        <v>0.0002737784234341234</v>
+        <v>-0.004223057068884373</v>
       </c>
       <c r="L2">
-        <v>-0.005093261133879423</v>
+        <v>-0.008963732980191708</v>
       </c>
       <c r="M2">
-        <v>0.001419791020452976</v>
+        <v>-0.004463005810976028</v>
       </c>
       <c r="N2">
-        <v>-0.01136971823871136</v>
+        <v>-0.01047779060900211</v>
       </c>
       <c r="O2">
-        <v>0.03420861437916756</v>
+        <v>0.03122284449636936</v>
       </c>
       <c r="P2">
-        <v>0.01604245603084564</v>
+        <v>0.02221347391605377</v>
       </c>
       <c r="Q2">
-        <v>-0.03829695284366608</v>
+        <v>-0.03933306038379669</v>
       </c>
       <c r="R2">
-        <v>0.01728501357138157</v>
+        <v>0.0124976746737957</v>
       </c>
       <c r="S2">
-        <v>0.04895433783531189</v>
+        <v>0.04912559688091278</v>
       </c>
       <c r="T2">
-        <v>-0.1291747242212296</v>
+        <v>-0.1294616013765335</v>
       </c>
       <c r="U2">
-        <v>0.09656461328268051</v>
+        <v>0.09205529093742371</v>
       </c>
       <c r="V2">
-        <v>-0.009617332369089127</v>
+        <v>-0.004542353563010693</v>
       </c>
       <c r="W2">
-        <v>0.02999118901789188</v>
+        <v>0.03106219135224819</v>
       </c>
       <c r="X2">
-        <v>0.0005429533775895834</v>
+        <v>0.001675782958045602</v>
       </c>
       <c r="Y2">
-        <v>0.05023835971951485</v>
+        <v>0.04911769554018974</v>
       </c>
       <c r="Z2">
-        <v>-0.02539112232625484</v>
+        <v>-0.02625505439937115</v>
       </c>
       <c r="AA2">
-        <v>0.003797046840190887</v>
+        <v>0.004757077433168888</v>
       </c>
       <c r="AB2">
-        <v>0.03748320415616035</v>
+        <v>0.03498314321041107</v>
       </c>
       <c r="AC2">
-        <v>0.03344453498721123</v>
+        <v>0.03379460424184799</v>
       </c>
       <c r="AD2">
-        <v>0.06347156316041946</v>
+        <v>0.06394817680120468</v>
       </c>
       <c r="AE2">
-        <v>-0.04234255105257034</v>
+        <v>-0.04286528378725052</v>
       </c>
       <c r="AF2">
-        <v>0.005048091523349285</v>
+        <v>0.002292507328093052</v>
       </c>
       <c r="AG2">
-        <v>0.1435547471046448</v>
+        <v>0.144668772816658</v>
       </c>
       <c r="AH2">
-        <v>0.07009061425924301</v>
+        <v>0.06562435626983643</v>
       </c>
       <c r="AI2">
-        <v>-0.04887718334794044</v>
+        <v>-0.05562188848853111</v>
       </c>
       <c r="AJ2">
-        <v>-0.009903691709041595</v>
+        <v>-0.0100636500865221</v>
       </c>
       <c r="AK2">
-        <v>0.00797281414270401</v>
+        <v>0.00572706526145339</v>
       </c>
       <c r="AL2">
-        <v>0.01737971417605877</v>
+        <v>0.01432238984853029</v>
       </c>
       <c r="AM2">
-        <v>0.002836590865626931</v>
+        <v>-0.005350294522941113</v>
       </c>
       <c r="AN2">
-        <v>0.17986860871315</v>
+        <v>0.1774922460317612</v>
       </c>
       <c r="AO2">
-        <v>0.08790410310029984</v>
+        <v>0.08838999271392822</v>
       </c>
       <c r="AP2">
-        <v>0.07463327795267105</v>
+        <v>0.07124181091785431</v>
       </c>
       <c r="AQ2">
-        <v>0.01707682758569717</v>
+        <v>0.01741999946534634</v>
       </c>
       <c r="AR2">
-        <v>0.1349499225616455</v>
+        <v>0.1349988877773285</v>
       </c>
       <c r="AS2">
-        <v>0.07451347261667252</v>
+        <v>0.07086925208568573</v>
       </c>
       <c r="AT2">
-        <v>0.05274781212210655</v>
+        <v>0.04609565064311028</v>
       </c>
       <c r="AU2">
-        <v>-0.02889657765626907</v>
+        <v>-0.02593688480556011</v>
       </c>
       <c r="AV2">
-        <v>0.1185552030801773</v>
+        <v>0.1119043901562691</v>
       </c>
       <c r="AW2">
-        <v>0.03749191388487816</v>
+        <v>0.03859139978885651</v>
       </c>
       <c r="AX2">
-        <v>-0.0003186831891071051</v>
+        <v>0.0009636965114623308</v>
       </c>
       <c r="AY2">
-        <v>-0.04702677577733994</v>
+        <v>-0.04925810918211937</v>
       </c>
       <c r="AZ2">
-        <v>0.03948192670941353</v>
+        <v>0.04252496361732483</v>
       </c>
       <c r="BA2">
-        <v>-0.02405736781656742</v>
+        <v>-0.02641410194337368</v>
       </c>
       <c r="BB2">
-        <v>0.0449829027056694</v>
+        <v>0.0510699674487114</v>
       </c>
       <c r="BC2">
-        <v>-0.0056091183796525</v>
+        <v>-0.003495564218610525</v>
       </c>
       <c r="BD2">
-        <v>-0.03858186677098274</v>
+        <v>-0.03819780424237251</v>
       </c>
       <c r="BE2">
-        <v>-0.01155377551913261</v>
+        <v>-0.00709856953471899</v>
       </c>
       <c r="BF2">
-        <v>0.07040020823478699</v>
+        <v>0.0764867439866066</v>
       </c>
       <c r="BG2">
-        <v>0.01330928411334753</v>
+        <v>0.01334080565720797</v>
       </c>
       <c r="BH2">
-        <v>-0.005140615161508322</v>
+        <v>-0.001539511606097221</v>
       </c>
       <c r="BI2">
-        <v>0.1201571524143219</v>
+        <v>0.1196068823337555</v>
       </c>
       <c r="BJ2">
-        <v>-0.006034038029611111</v>
+        <v>-0.003523949533700943</v>
       </c>
       <c r="BK2">
-        <v>0.002063994761556387</v>
+        <v>0.003464800072833896</v>
       </c>
       <c r="BL2">
-        <v>-0.004397458862513304</v>
+        <v>-0.007566832005977631</v>
       </c>
       <c r="BM2">
-        <v>0.09133480489253998</v>
+        <v>0.09635014832019806</v>
       </c>
       <c r="BN2">
-        <v>-0.03977647796273232</v>
+        <v>-0.03265290334820747</v>
       </c>
       <c r="BO2">
-        <v>0.04627813026309013</v>
+        <v>0.05067524686455727</v>
       </c>
       <c r="BP2">
-        <v>0.0352855809032917</v>
+        <v>0.03854379802942276</v>
       </c>
       <c r="BQ2">
-        <v>-0.001790230278857052</v>
+        <v>-0.004067161586135626</v>
       </c>
       <c r="BR2">
-        <v>0.0003479384758975357</v>
+        <v>0.002047255635261536</v>
       </c>
       <c r="BS2">
-        <v>-0.0001103552422137</v>
+        <v>-0.001318018767051399</v>
       </c>
       <c r="BT2">
-        <v>-0.00755988247692585</v>
+        <v>-0.008959216065704823</v>
       </c>
       <c r="BU2">
-        <v>0.005133229773491621</v>
+        <v>0.005089531186968088</v>
       </c>
       <c r="BV2">
-        <v>-0.02409455366432667</v>
+        <v>-0.02769053727388382</v>
       </c>
       <c r="BW2">
-        <v>0.007599527481943369</v>
+        <v>0.005241008941084146</v>
       </c>
       <c r="BX2">
-        <v>-2.660866630321834E-05</v>
+        <v>-0.002473651664331555</v>
       </c>
       <c r="BY2">
-        <v>-0.0003326415608171374</v>
+        <v>0.00282167480327189</v>
       </c>
       <c r="BZ2">
-        <v>0.03682893142104149</v>
+        <v>0.03521019220352173</v>
       </c>
       <c r="CA2">
-        <v>0.04199647530913353</v>
+        <v>0.043132483959198</v>
       </c>
       <c r="CB2">
-        <v>-0.128749668598175</v>
+        <v>-0.1333436816930771</v>
       </c>
       <c r="CC2">
-        <v>-0.0004518087371252477</v>
+        <v>-0.0006471821689046919</v>
       </c>
       <c r="CD2">
-        <v>-0.0111765069887042</v>
+        <v>-0.01128326915204525</v>
       </c>
       <c r="CE2">
-        <v>-0.01069902535527945</v>
+        <v>-0.01212602574378252</v>
       </c>
       <c r="CF2">
-        <v>-0.02700438536703587</v>
+        <v>-0.03209197893738747</v>
       </c>
       <c r="CG2">
-        <v>0.1234465017914772</v>
+        <v>0.1267238706350327</v>
       </c>
       <c r="CH2">
-        <v>-0.07324127852916718</v>
+        <v>-0.07544753700494766</v>
       </c>
       <c r="CI2">
-        <v>0.03960734605789185</v>
+        <v>0.04051590710878372</v>
       </c>
       <c r="CJ2">
-        <v>0.08450817316770554</v>
+        <v>0.08269327878952026</v>
       </c>
       <c r="CK2">
-        <v>-0.00979059562087059</v>
+        <v>-0.009742840193212032</v>
       </c>
       <c r="CL2">
-        <v>0.0007748962379992008</v>
+        <v>0.000349021574947983</v>
       </c>
       <c r="CM2">
-        <v>0.08082421123981476</v>
+        <v>0.08337239176034927</v>
       </c>
       <c r="CN2">
-        <v>0.006773734465241432</v>
+        <v>0.00269403588026762</v>
       </c>
       <c r="CO2">
-        <v>-0.001732471864670515</v>
+        <v>-0.001130198477767408</v>
       </c>
       <c r="CP2">
-        <v>0.0704403817653656</v>
+        <v>0.07006832957267761</v>
       </c>
       <c r="CQ2">
-        <v>0.004320646170526743</v>
+        <v>0.01014137081801891</v>
       </c>
       <c r="CR2">
-        <v>0.01238018460571766</v>
+        <v>0.01231406815350056</v>
       </c>
       <c r="CS2">
-        <v>0.004569025710225105</v>
+        <v>0.004761152900755405</v>
       </c>
       <c r="CT2">
-        <v>-0.007235995028167963</v>
+        <v>-0.007305888924747705</v>
       </c>
       <c r="CU2">
-        <v>0.007435656152665615</v>
+        <v>0.01302740350365639</v>
       </c>
       <c r="CV2">
-        <v>0.01439515314996243</v>
+        <v>0.008884763345122337</v>
       </c>
       <c r="CW2">
-        <v>-0.1255993992090225</v>
+        <v>-0.1260253041982651</v>
       </c>
       <c r="CX2">
-        <v>0.01016303803771734</v>
+        <v>0.004262186121195555</v>
       </c>
       <c r="CY2">
-        <v>-0.01974295824766159</v>
+        <v>-0.01907646656036377</v>
       </c>
       <c r="CZ2">
-        <v>-0.01526049431413412</v>
+        <v>-0.01468025986105204</v>
       </c>
       <c r="DA2">
-        <v>-0.1418660879135132</v>
+        <v>-0.1342329531908035</v>
       </c>
       <c r="DB2">
-        <v>-0.04994387924671173</v>
+        <v>-0.05182066932320595</v>
       </c>
       <c r="DC2">
-        <v>0.004779008682817221</v>
+        <v>-0.0005009828601032495</v>
       </c>
       <c r="DD2">
-        <v>0.27743199467659</v>
+        <v>0.2732506394386292</v>
       </c>
       <c r="DE2">
-        <v>0.01123634167015553</v>
+        <v>0.01162818260490894</v>
       </c>
       <c r="DF2">
-        <v>0.009024089202284813</v>
+        <v>0.00565441558137536</v>
       </c>
       <c r="DG2">
-        <v>-0.007111927028745413</v>
+        <v>-0.004859731066972017</v>
       </c>
       <c r="DH2">
-        <v>-0.1159318909049034</v>
+        <v>-0.1232121288776398</v>
       </c>
       <c r="DI2">
-        <v>-0.00147609447594732</v>
+        <v>0.007284283172339201</v>
       </c>
       <c r="DJ2">
-        <v>0.05342767015099525</v>
+        <v>0.05668278783559799</v>
       </c>
       <c r="DK2">
-        <v>-0.06646184623241425</v>
+        <v>-0.06422165781259537</v>
       </c>
       <c r="DL2">
-        <v>-0.1498649716377258</v>
+        <v>-0.1504251658916473</v>
       </c>
       <c r="DM2">
-        <v>0.06043338775634766</v>
+        <v>0.06011134386062622</v>
       </c>
       <c r="DN2">
-        <v>-0.08175013959407806</v>
+        <v>-0.08135274797677994</v>
       </c>
       <c r="DO2">
-        <v>0.05498448759317398</v>
+        <v>0.04843436926603317</v>
       </c>
       <c r="DP2">
-        <v>0.04149248450994492</v>
+        <v>0.0389954075217247</v>
       </c>
       <c r="DQ2">
-        <v>0.006971048191189766</v>
+        <v>0.007534819655120373</v>
       </c>
       <c r="DR2">
-        <v>0.003070405218750238</v>
+        <v>-0.0004078361089341342</v>
       </c>
       <c r="DS2">
-        <v>-0.06161654368042946</v>
+        <v>-0.06327986717224121</v>
       </c>
       <c r="DT2">
-        <v>0.006324375979602337</v>
+        <v>0.01493188831955194</v>
       </c>
       <c r="DU2">
-        <v>0.08181857317686081</v>
+        <v>0.0754278376698494</v>
       </c>
       <c r="DV2">
-        <v>0.01270762365311384</v>
+        <v>0.005558581557124853</v>
       </c>
       <c r="DW2">
-        <v>0.006019942462444305</v>
+        <v>0.009925846010446548</v>
       </c>
       <c r="DX2">
-        <v>0.09641030430793762</v>
+        <v>0.09643401205539703</v>
       </c>
       <c r="DY2">
-        <v>0.04671221226453781</v>
+        <v>0.04836752638220787</v>
       </c>
       <c r="DZ2">
-        <v>0.00500208605080843</v>
+        <v>0.00461625587195158</v>
       </c>
       <c r="EA2">
-        <v>0.03575941547751427</v>
+        <v>0.03199992328882217</v>
       </c>
       <c r="EB2">
-        <v>-0.01040809229016304</v>
+        <v>-0.01006457302719355</v>
       </c>
       <c r="EC2">
-        <v>-0.002922364976257086</v>
+        <v>-0.002181799849495292</v>
       </c>
       <c r="ED2">
-        <v>0.1611248701810837</v>
+        <v>0.1607205718755722</v>
       </c>
       <c r="EE2">
-        <v>-0.005240227561444044</v>
+        <v>-0.004725094418972731</v>
       </c>
       <c r="EF2">
-        <v>-0.1010421514511108</v>
+        <v>-0.1061210036277771</v>
       </c>
       <c r="EG2">
-        <v>0.01930749975144863</v>
+        <v>0.01123821642249823</v>
       </c>
       <c r="EH2">
-        <v>-0.0408356674015522</v>
+        <v>-0.04636364430189133</v>
       </c>
       <c r="EI2">
-        <v>-0.209713026881218</v>
+        <v>-0.2111241370439529</v>
       </c>
       <c r="EJ2">
-        <v>-0.07563792914152145</v>
+        <v>-0.07653643190860748</v>
       </c>
       <c r="EK2">
-        <v>0.005173410288989544</v>
+        <v>0.004281865432858467</v>
       </c>
       <c r="EL2">
-        <v>0.001112682512030005</v>
+        <v>0.001567480736412108</v>
       </c>
       <c r="EM2">
-        <v>0.05710882321000099</v>
+        <v>0.05477454513311386</v>
       </c>
       <c r="EN2">
-        <v>-0.09414736926555634</v>
+        <v>-0.0888601690530777</v>
       </c>
       <c r="EO2">
-        <v>0.06641371548175812</v>
+        <v>0.06980410218238831</v>
       </c>
       <c r="EP2">
-        <v>0.1120983958244324</v>
+        <v>0.1117684915661812</v>
       </c>
       <c r="EQ2">
-        <v>0.05585862696170807</v>
+        <v>0.04945700243115425</v>
       </c>
       <c r="ER2">
-        <v>0.006191796157509089</v>
+        <v>0.005370007827877998</v>
       </c>
       <c r="ES2">
-        <v>-0.05613429099321365</v>
+        <v>-0.06134900078177452</v>
       </c>
       <c r="ET2">
-        <v>0.01054393034428358</v>
+        <v>0.01687248609960079</v>
       </c>
       <c r="EU2">
-        <v>-0.02612782828509808</v>
+        <v>-0.02117671445012093</v>
       </c>
       <c r="EV2">
-        <v>-0.0421312116086483</v>
+        <v>-0.03530445694923401</v>
       </c>
       <c r="EW2">
-        <v>0.08985459059476852</v>
+        <v>0.08848511427640915</v>
       </c>
       <c r="EX2">
-        <v>0.09841964393854141</v>
+        <v>0.09918852150440216</v>
       </c>
       <c r="EY2">
-        <v>0.002247730968520045</v>
+        <v>0.001680004876106977</v>
       </c>
       <c r="EZ2">
-        <v>-0.1203762143850327</v>
+        <v>-0.1163541078567505</v>
       </c>
       <c r="FA2">
-        <v>0.004220323171466589</v>
+        <v>-0.0003898724098689854</v>
       </c>
       <c r="FB2">
-        <v>0.001246924512088299</v>
+        <v>0.001776505960151553</v>
       </c>
       <c r="FC2">
-        <v>0.003026930149644613</v>
+        <v>-0.005526794120669365</v>
       </c>
       <c r="FD2">
-        <v>0.00225996202789247</v>
+        <v>0.002712283516302705</v>
       </c>
       <c r="FE2">
-        <v>0.1145661920309067</v>
+        <v>0.1140677034854889</v>
       </c>
       <c r="FF2">
-        <v>0.1114625111222267</v>
+        <v>0.1166888549923897</v>
       </c>
       <c r="FG2">
-        <v>0.1235698908567429</v>
+        <v>0.1222152858972549</v>
       </c>
       <c r="FH2">
-        <v>-0.008997117169201374</v>
+        <v>-0.0003280246746726334</v>
       </c>
       <c r="FI2">
-        <v>-0.003012797329574823</v>
+        <v>0.005031106527894735</v>
       </c>
       <c r="FJ2">
-        <v>-0.06150734052062035</v>
+        <v>-0.06898951530456543</v>
       </c>
       <c r="FK2">
-        <v>-0.05276164785027504</v>
+        <v>-0.04794472455978394</v>
       </c>
       <c r="FL2">
-        <v>-0.08014783263206482</v>
+        <v>-0.07875372469425201</v>
       </c>
       <c r="FM2">
-        <v>0.03872035443782806</v>
+        <v>0.03796839341521263</v>
       </c>
       <c r="FN2">
-        <v>-0.002547283656895161</v>
+        <v>-0.005260821431875229</v>
       </c>
       <c r="FO2">
-        <v>0.003426889656111598</v>
+        <v>0.007045204285532236</v>
       </c>
       <c r="FP2">
-        <v>0.002838645363226533</v>
+        <v>1.474592772865435E-05</v>
       </c>
       <c r="FQ2">
-        <v>0.0007371903047896922</v>
+        <v>0.001215727999806404</v>
       </c>
       <c r="FR2">
-        <v>-0.01487579382956028</v>
+        <v>-0.01452999655157328</v>
       </c>
       <c r="FS2">
-        <v>0.003346085315570235</v>
+        <v>0.003005177481099963</v>
       </c>
       <c r="FT2">
-        <v>-0.0009339445969089866</v>
+        <v>-0.001049264101311564</v>
       </c>
       <c r="FU2">
-        <v>0.06189111620187759</v>
+        <v>0.06108804419636726</v>
       </c>
       <c r="FV2">
-        <v>0.006357538048177958</v>
+        <v>0.006271150894463062</v>
       </c>
       <c r="FW2">
-        <v>0.02861445769667625</v>
+        <v>0.02795990742743015</v>
       </c>
       <c r="FX2">
-        <v>-0.004272289108484983</v>
+        <v>0.0008122482104226947</v>
       </c>
       <c r="FY2">
-        <v>0.01174977235496044</v>
+        <v>0.01181433442980051</v>
       </c>
       <c r="FZ2">
-        <v>0.002941882237792015</v>
+        <v>0.01112893223762512</v>
       </c>
       <c r="GA2">
-        <v>-0.001786737120710313</v>
+        <v>0.0007796711288392544</v>
       </c>
       <c r="GB2">
-        <v>-0.004623315762728453</v>
+        <v>-0.01046083308756351</v>
       </c>
       <c r="GC2">
-        <v>-0.01021382212638855</v>
+        <v>-0.01145495288074017</v>
       </c>
       <c r="GD2">
-        <v>0.05880692973732948</v>
+        <v>0.05860224738717079</v>
       </c>
       <c r="GE2">
-        <v>-0.002720519667491317</v>
+        <v>-0.002318264450877905</v>
       </c>
       <c r="GF2">
-        <v>-0.04352439939975739</v>
+        <v>-0.04720186442136765</v>
       </c>
       <c r="GG2">
-        <v>-0.06104002147912979</v>
+        <v>-0.06850656121969223</v>
       </c>
       <c r="GH2">
-        <v>0.001626493409276009</v>
+        <v>-0.004946016706526279</v>
       </c>
       <c r="GI2">
-        <v>-0.007106151897460222</v>
+        <v>-0.003070050152018666</v>
       </c>
       <c r="GJ2">
-        <v>0.004830391611903906</v>
+        <v>0.0009174692095257342</v>
       </c>
       <c r="GK2">
-        <v>-0.06632252782583237</v>
+        <v>-0.06592348963022232</v>
       </c>
       <c r="GL2">
-        <v>-0.02225304208695889</v>
+        <v>-0.02613114751875401</v>
       </c>
       <c r="GM2">
-        <v>0.04038179293274879</v>
+        <v>0.03884817659854889</v>
       </c>
       <c r="GN2">
-        <v>-0.04261471331119537</v>
+        <v>-0.04710608720779419</v>
       </c>
       <c r="GO2">
-        <v>0.1132087409496307</v>
+        <v>0.1214545965194702</v>
       </c>
       <c r="GP2">
-        <v>-0.02692362479865551</v>
+        <v>-0.02656704932451248</v>
       </c>
       <c r="GQ2">
-        <v>0.006355435587465763</v>
+        <v>-0.0001807207445381209</v>
       </c>
       <c r="GR2">
-        <v>-0.001055753789842129</v>
+        <v>0.00601105485111475</v>
       </c>
       <c r="GS2">
-        <v>-0.02850715257227421</v>
+        <v>-0.02635655552148819</v>
       </c>
       <c r="GT2">
-        <v>0.0001755428966134787</v>
+        <v>-0.001061458606272936</v>
       </c>
       <c r="GU2">
-        <v>-0.003767904359847307</v>
+        <v>-0.002949876012280583</v>
       </c>
       <c r="GV2">
-        <v>-0.00163167470600456</v>
+        <v>-0.004227621480822563</v>
       </c>
       <c r="GW2">
-        <v>-0.02375762723386288</v>
+        <v>-0.01932523399591446</v>
       </c>
       <c r="GX2">
-        <v>0.007054286543279886</v>
+        <v>0.00853389035910368</v>
       </c>
       <c r="GY2">
-        <v>-0.01267329882830381</v>
+        <v>-0.01239343825727701</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Real Estate.xlsx
+++ b/static/Models/Regression/Equation/Real Estate.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02287708222866058</v>
+        <v>0.02470947802066803</v>
       </c>
       <c r="C2">
-        <v>-0.05729381740093231</v>
+        <v>-0.05581778660416603</v>
       </c>
       <c r="D2">
-        <v>0.07952720671892166</v>
+        <v>0.07968620210886002</v>
       </c>
       <c r="E2">
-        <v>-0.03788834437727928</v>
+        <v>-0.03762219846248627</v>
       </c>
       <c r="F2">
-        <v>-0.003056481247767806</v>
+        <v>0.002061054576188326</v>
       </c>
       <c r="G2">
-        <v>0.05242637544870377</v>
+        <v>0.05280048400163651</v>
       </c>
       <c r="H2">
-        <v>-0.01395959965884686</v>
+        <v>-0.011915716342628</v>
       </c>
       <c r="I2">
-        <v>-0.0157062541693449</v>
+        <v>-0.01746230944991112</v>
       </c>
       <c r="J2">
-        <v>-0.08861643821001053</v>
+        <v>-0.08877066522836685</v>
       </c>
       <c r="K2">
-        <v>-0.004223057068884373</v>
+        <v>0.001013130298815668</v>
       </c>
       <c r="L2">
-        <v>-0.008963732980191708</v>
+        <v>-0.005907876882702112</v>
       </c>
       <c r="M2">
-        <v>-0.004463005810976028</v>
+        <v>-0.001806645886972547</v>
       </c>
       <c r="N2">
-        <v>-0.01047779060900211</v>
+        <v>-0.007990467362105846</v>
       </c>
       <c r="O2">
-        <v>0.03122284449636936</v>
+        <v>0.03117354214191437</v>
       </c>
       <c r="P2">
-        <v>0.02221347391605377</v>
+        <v>0.02107718400657177</v>
       </c>
       <c r="Q2">
-        <v>-0.03933306038379669</v>
+        <v>-0.0399496778845787</v>
       </c>
       <c r="R2">
-        <v>0.0124976746737957</v>
+        <v>0.009676731191575527</v>
       </c>
       <c r="S2">
-        <v>0.04912559688091278</v>
+        <v>0.04681756719946861</v>
       </c>
       <c r="T2">
-        <v>-0.1294616013765335</v>
+        <v>-0.1304855346679688</v>
       </c>
       <c r="U2">
-        <v>0.09205529093742371</v>
+        <v>0.09258484095335007</v>
       </c>
       <c r="V2">
-        <v>-0.004542353563010693</v>
+        <v>-0.002925107721239328</v>
       </c>
       <c r="W2">
-        <v>0.03106219135224819</v>
+        <v>0.02886161208152771</v>
       </c>
       <c r="X2">
-        <v>0.001675782958045602</v>
+        <v>-0.0001685794268269092</v>
       </c>
       <c r="Y2">
-        <v>0.04911769554018974</v>
+        <v>0.05034304037690163</v>
       </c>
       <c r="Z2">
-        <v>-0.02625505439937115</v>
+        <v>-0.02901826985180378</v>
       </c>
       <c r="AA2">
-        <v>0.004757077433168888</v>
+        <v>0.009460807777941227</v>
       </c>
       <c r="AB2">
-        <v>0.03498314321041107</v>
+        <v>0.0368318185210228</v>
       </c>
       <c r="AC2">
-        <v>0.03379460424184799</v>
+        <v>0.03431998193264008</v>
       </c>
       <c r="AD2">
-        <v>0.06394817680120468</v>
+        <v>0.06275280565023422</v>
       </c>
       <c r="AE2">
-        <v>-0.04286528378725052</v>
+        <v>-0.03926758840680122</v>
       </c>
       <c r="AF2">
-        <v>0.002292507328093052</v>
+        <v>0.003402893897145987</v>
       </c>
       <c r="AG2">
-        <v>0.144668772816658</v>
+        <v>0.1406602412462234</v>
       </c>
       <c r="AH2">
-        <v>0.06562435626983643</v>
+        <v>0.06487444043159485</v>
       </c>
       <c r="AI2">
-        <v>-0.05562188848853111</v>
+        <v>-0.04798993095755577</v>
       </c>
       <c r="AJ2">
-        <v>-0.0100636500865221</v>
+        <v>-0.01059975754469633</v>
       </c>
       <c r="AK2">
-        <v>0.00572706526145339</v>
+        <v>0.009293992072343826</v>
       </c>
       <c r="AL2">
-        <v>0.01432238984853029</v>
+        <v>0.01215864811092615</v>
       </c>
       <c r="AM2">
-        <v>-0.005350294522941113</v>
+        <v>-0.00424167001619935</v>
       </c>
       <c r="AN2">
-        <v>0.1774922460317612</v>
+        <v>0.1799708604812622</v>
       </c>
       <c r="AO2">
-        <v>0.08838999271392822</v>
+        <v>0.08784697949886322</v>
       </c>
       <c r="AP2">
-        <v>0.07124181091785431</v>
+        <v>0.07045231759548187</v>
       </c>
       <c r="AQ2">
-        <v>0.01741999946534634</v>
+        <v>0.01467195898294449</v>
       </c>
       <c r="AR2">
-        <v>0.1349988877773285</v>
+        <v>0.1339564621448517</v>
       </c>
       <c r="AS2">
-        <v>0.07086925208568573</v>
+        <v>0.07414955645799637</v>
       </c>
       <c r="AT2">
-        <v>0.04609565064311028</v>
+        <v>0.0479465126991272</v>
       </c>
       <c r="AU2">
-        <v>-0.02593688480556011</v>
+        <v>-0.02542603015899658</v>
       </c>
       <c r="AV2">
-        <v>0.1119043901562691</v>
+        <v>0.1097221821546555</v>
       </c>
       <c r="AW2">
-        <v>0.03859139978885651</v>
+        <v>0.03882913663983345</v>
       </c>
       <c r="AX2">
-        <v>0.0009636965114623308</v>
+        <v>0.002948725363239646</v>
       </c>
       <c r="AY2">
-        <v>-0.04925810918211937</v>
+        <v>-0.05621380731463432</v>
       </c>
       <c r="AZ2">
-        <v>0.04252496361732483</v>
+        <v>0.04586047679185867</v>
       </c>
       <c r="BA2">
-        <v>-0.02641410194337368</v>
+        <v>-0.02230997197329998</v>
       </c>
       <c r="BB2">
-        <v>0.0510699674487114</v>
+        <v>0.05221961811184883</v>
       </c>
       <c r="BC2">
-        <v>-0.003495564218610525</v>
+        <v>-0.004287480842322111</v>
       </c>
       <c r="BD2">
-        <v>-0.03819780424237251</v>
+        <v>-0.03934574872255325</v>
       </c>
       <c r="BE2">
-        <v>-0.00709856953471899</v>
+        <v>-0.004270708654075861</v>
       </c>
       <c r="BF2">
-        <v>0.0764867439866066</v>
+        <v>0.07805455476045609</v>
       </c>
       <c r="BG2">
-        <v>0.01334080565720797</v>
+        <v>0.01223788317292929</v>
       </c>
       <c r="BH2">
-        <v>-0.001539511606097221</v>
+        <v>-0.001768609625287354</v>
       </c>
       <c r="BI2">
-        <v>0.1196068823337555</v>
+        <v>0.1191777214407921</v>
       </c>
       <c r="BJ2">
-        <v>-0.003523949533700943</v>
+        <v>-0.001463422318920493</v>
       </c>
       <c r="BK2">
-        <v>0.003464800072833896</v>
+        <v>-0.000172835512785241</v>
       </c>
       <c r="BL2">
-        <v>-0.007566832005977631</v>
+        <v>-0.005402404814958572</v>
       </c>
       <c r="BM2">
-        <v>0.09635014832019806</v>
+        <v>0.0964784249663353</v>
       </c>
       <c r="BN2">
-        <v>-0.03265290334820747</v>
+        <v>-0.03272083029150963</v>
       </c>
       <c r="BO2">
-        <v>0.05067524686455727</v>
+        <v>0.05029685795307159</v>
       </c>
       <c r="BP2">
-        <v>0.03854379802942276</v>
+        <v>0.03997182473540306</v>
       </c>
       <c r="BQ2">
-        <v>-0.004067161586135626</v>
+        <v>-0.005350987426936626</v>
       </c>
       <c r="BR2">
-        <v>0.002047255635261536</v>
+        <v>0.005816734861582518</v>
       </c>
       <c r="BS2">
-        <v>-0.001318018767051399</v>
+        <v>-0.007820174098014832</v>
       </c>
       <c r="BT2">
-        <v>-0.008959216065704823</v>
+        <v>-0.004493263550102711</v>
       </c>
       <c r="BU2">
-        <v>0.005089531186968088</v>
+        <v>0.003394220024347305</v>
       </c>
       <c r="BV2">
-        <v>-0.02769053727388382</v>
+        <v>-0.02790538594126701</v>
       </c>
       <c r="BW2">
-        <v>0.005241008941084146</v>
+        <v>0.003439279273152351</v>
       </c>
       <c r="BX2">
-        <v>-0.002473651664331555</v>
+        <v>-0.002799737267196178</v>
       </c>
       <c r="BY2">
-        <v>0.00282167480327189</v>
+        <v>0.001065711840055883</v>
       </c>
       <c r="BZ2">
-        <v>0.03521019220352173</v>
+        <v>0.03524918109178543</v>
       </c>
       <c r="CA2">
-        <v>0.043132483959198</v>
+        <v>0.04356320202350616</v>
       </c>
       <c r="CB2">
-        <v>-0.1333436816930771</v>
+        <v>-0.131732702255249</v>
       </c>
       <c r="CC2">
-        <v>-0.0006471821689046919</v>
+        <v>-0.002047771122306585</v>
       </c>
       <c r="CD2">
-        <v>-0.01128326915204525</v>
+        <v>-0.0115194246172905</v>
       </c>
       <c r="CE2">
-        <v>-0.01212602574378252</v>
+        <v>-0.01317406073212624</v>
       </c>
       <c r="CF2">
-        <v>-0.03209197893738747</v>
+        <v>-0.03302682191133499</v>
       </c>
       <c r="CG2">
-        <v>0.1267238706350327</v>
+        <v>0.1273086071014404</v>
       </c>
       <c r="CH2">
-        <v>-0.07544753700494766</v>
+        <v>-0.07569360733032227</v>
       </c>
       <c r="CI2">
-        <v>0.04051590710878372</v>
+        <v>0.03959116712212563</v>
       </c>
       <c r="CJ2">
-        <v>0.08269327878952026</v>
+        <v>0.08534795790910721</v>
       </c>
       <c r="CK2">
-        <v>-0.009742840193212032</v>
+        <v>-0.01203597895801067</v>
       </c>
       <c r="CL2">
-        <v>0.000349021574947983</v>
+        <v>-0.001127507188357413</v>
       </c>
       <c r="CM2">
-        <v>0.08337239176034927</v>
+        <v>0.08480599522590637</v>
       </c>
       <c r="CN2">
-        <v>0.00269403588026762</v>
+        <v>0.001038549933582544</v>
       </c>
       <c r="CO2">
-        <v>-0.001130198477767408</v>
+        <v>-0.002290046773850918</v>
       </c>
       <c r="CP2">
-        <v>0.07006832957267761</v>
+        <v>0.07126564532518387</v>
       </c>
       <c r="CQ2">
-        <v>0.01014137081801891</v>
+        <v>0.01344612892717123</v>
       </c>
       <c r="CR2">
-        <v>0.01231406815350056</v>
+        <v>0.006822461262345314</v>
       </c>
       <c r="CS2">
-        <v>0.004761152900755405</v>
+        <v>0.004479011055082083</v>
       </c>
       <c r="CT2">
-        <v>-0.007305888924747705</v>
+        <v>-0.00863976776599884</v>
       </c>
       <c r="CU2">
-        <v>0.01302740350365639</v>
+        <v>0.0130802970379591</v>
       </c>
       <c r="CV2">
-        <v>0.008884763345122337</v>
+        <v>0.005718637723475695</v>
       </c>
       <c r="CW2">
-        <v>-0.1260253041982651</v>
+        <v>-0.1277773529291153</v>
       </c>
       <c r="CX2">
-        <v>0.004262186121195555</v>
+        <v>0.0007495025056414306</v>
       </c>
       <c r="CY2">
-        <v>-0.01907646656036377</v>
+        <v>-0.01880057714879513</v>
       </c>
       <c r="CZ2">
-        <v>-0.01468025986105204</v>
+        <v>-0.01022027246654034</v>
       </c>
       <c r="DA2">
-        <v>-0.1342329531908035</v>
+        <v>-0.1347926557064056</v>
       </c>
       <c r="DB2">
-        <v>-0.05182066932320595</v>
+        <v>-0.05080089718103409</v>
       </c>
       <c r="DC2">
-        <v>-0.0005009828601032495</v>
+        <v>0.002238657791167498</v>
       </c>
       <c r="DD2">
-        <v>0.2732506394386292</v>
+        <v>0.2729709446430206</v>
       </c>
       <c r="DE2">
-        <v>0.01162818260490894</v>
+        <v>0.01139459572732449</v>
       </c>
       <c r="DF2">
-        <v>0.00565441558137536</v>
+        <v>0.005664901807904243</v>
       </c>
       <c r="DG2">
-        <v>-0.004859731066972017</v>
+        <v>-0.006696050520986319</v>
       </c>
       <c r="DH2">
-        <v>-0.1232121288776398</v>
+        <v>-0.1263159811496735</v>
       </c>
       <c r="DI2">
-        <v>0.007284283172339201</v>
+        <v>0.009269298054277897</v>
       </c>
       <c r="DJ2">
-        <v>0.05668278783559799</v>
+        <v>0.05709386989474297</v>
       </c>
       <c r="DK2">
-        <v>-0.06422165781259537</v>
+        <v>-0.06298858672380447</v>
       </c>
       <c r="DL2">
-        <v>-0.1504251658916473</v>
+        <v>-0.1470618396997452</v>
       </c>
       <c r="DM2">
-        <v>0.06011134386062622</v>
+        <v>0.06228926777839661</v>
       </c>
       <c r="DN2">
-        <v>-0.08135274797677994</v>
+        <v>-0.08260635286569595</v>
       </c>
       <c r="DO2">
-        <v>0.04843436926603317</v>
+        <v>0.04685887694358826</v>
       </c>
       <c r="DP2">
-        <v>0.0389954075217247</v>
+        <v>0.04044623300433159</v>
       </c>
       <c r="DQ2">
-        <v>0.007534819655120373</v>
+        <v>0.007690785452723503</v>
       </c>
       <c r="DR2">
-        <v>-0.0004078361089341342</v>
+        <v>-0.003497350960969925</v>
       </c>
       <c r="DS2">
-        <v>-0.06327986717224121</v>
+        <v>-0.06284692883491516</v>
       </c>
       <c r="DT2">
-        <v>0.01493188831955194</v>
+        <v>0.01389081403613091</v>
       </c>
       <c r="DU2">
-        <v>0.0754278376698494</v>
+        <v>0.07689534872770309</v>
       </c>
       <c r="DV2">
-        <v>0.005558581557124853</v>
+        <v>0.003539543598890305</v>
       </c>
       <c r="DW2">
-        <v>0.009925846010446548</v>
+        <v>0.01414982881397009</v>
       </c>
       <c r="DX2">
-        <v>0.09643401205539703</v>
+        <v>0.09530166536569595</v>
       </c>
       <c r="DY2">
-        <v>0.04836752638220787</v>
+        <v>0.04995136708021164</v>
       </c>
       <c r="DZ2">
-        <v>0.00461625587195158</v>
+        <v>0.0001428475661668926</v>
       </c>
       <c r="EA2">
-        <v>0.03199992328882217</v>
+        <v>0.03257746994495392</v>
       </c>
       <c r="EB2">
-        <v>-0.01006457302719355</v>
+        <v>-0.01118927169591188</v>
       </c>
       <c r="EC2">
-        <v>-0.002181799849495292</v>
+        <v>-0.004548060242086649</v>
       </c>
       <c r="ED2">
-        <v>0.1607205718755722</v>
+        <v>0.1601151823997498</v>
       </c>
       <c r="EE2">
-        <v>-0.004725094418972731</v>
+        <v>-0.005655800923705101</v>
       </c>
       <c r="EF2">
-        <v>-0.1061210036277771</v>
+        <v>-0.109167218208313</v>
       </c>
       <c r="EG2">
-        <v>0.01123821642249823</v>
+        <v>0.01213796250522137</v>
       </c>
       <c r="EH2">
-        <v>-0.04636364430189133</v>
+        <v>-0.0442986749112606</v>
       </c>
       <c r="EI2">
-        <v>-0.2111241370439529</v>
+        <v>-0.211196169257164</v>
       </c>
       <c r="EJ2">
-        <v>-0.07653643190860748</v>
+        <v>-0.07768221199512482</v>
       </c>
       <c r="EK2">
-        <v>0.004281865432858467</v>
+        <v>0.002620130777359009</v>
       </c>
       <c r="EL2">
-        <v>0.001567480736412108</v>
+        <v>0.0003721690445672721</v>
       </c>
       <c r="EM2">
-        <v>0.05477454513311386</v>
+        <v>0.05622145906090736</v>
       </c>
       <c r="EN2">
-        <v>-0.0888601690530777</v>
+        <v>-0.08885709941387177</v>
       </c>
       <c r="EO2">
-        <v>0.06980410218238831</v>
+        <v>0.06986041367053986</v>
       </c>
       <c r="EP2">
-        <v>0.1117684915661812</v>
+        <v>0.1115812584757805</v>
       </c>
       <c r="EQ2">
-        <v>0.04945700243115425</v>
+        <v>0.04831689596176147</v>
       </c>
       <c r="ER2">
-        <v>0.005370007827877998</v>
+        <v>0.007719743531197309</v>
       </c>
       <c r="ES2">
-        <v>-0.06134900078177452</v>
+        <v>-0.06048832461237907</v>
       </c>
       <c r="ET2">
-        <v>0.01687248609960079</v>
+        <v>0.01518769934773445</v>
       </c>
       <c r="EU2">
-        <v>-0.02117671445012093</v>
+        <v>-0.01971938274800777</v>
       </c>
       <c r="EV2">
-        <v>-0.03530445694923401</v>
+        <v>-0.03716301918029785</v>
       </c>
       <c r="EW2">
-        <v>0.08848511427640915</v>
+        <v>0.08852881193161011</v>
       </c>
       <c r="EX2">
-        <v>0.09918852150440216</v>
+        <v>0.09864449501037598</v>
       </c>
       <c r="EY2">
-        <v>0.001680004876106977</v>
+        <v>-0.0002799092617351562</v>
       </c>
       <c r="EZ2">
-        <v>-0.1163541078567505</v>
+        <v>-0.1139024123549461</v>
       </c>
       <c r="FA2">
-        <v>-0.0003898724098689854</v>
+        <v>0.001264391117729247</v>
       </c>
       <c r="FB2">
-        <v>0.001776505960151553</v>
+        <v>0.0018323176773265</v>
       </c>
       <c r="FC2">
-        <v>-0.005526794120669365</v>
+        <v>-0.008319627493619919</v>
       </c>
       <c r="FD2">
-        <v>0.002712283516302705</v>
+        <v>0.007668129168450832</v>
       </c>
       <c r="FE2">
-        <v>0.1140677034854889</v>
+        <v>0.1153382733464241</v>
       </c>
       <c r="FF2">
-        <v>0.1166888549923897</v>
+        <v>0.1163549050688744</v>
       </c>
       <c r="FG2">
-        <v>0.1222152858972549</v>
+        <v>0.122501015663147</v>
       </c>
       <c r="FH2">
-        <v>-0.0003280246746726334</v>
+        <v>0.00118134415242821</v>
       </c>
       <c r="FI2">
-        <v>0.005031106527894735</v>
+        <v>0.005932776723057032</v>
       </c>
       <c r="FJ2">
-        <v>-0.06898951530456543</v>
+        <v>-0.07025787234306335</v>
       </c>
       <c r="FK2">
-        <v>-0.04794472455978394</v>
+        <v>-0.04416182637214661</v>
       </c>
       <c r="FL2">
-        <v>-0.07875372469425201</v>
+        <v>-0.07683207839727402</v>
       </c>
       <c r="FM2">
-        <v>0.03796839341521263</v>
+        <v>0.03655953332781792</v>
       </c>
       <c r="FN2">
-        <v>-0.005260821431875229</v>
+        <v>-0.005340828560292721</v>
       </c>
       <c r="FO2">
-        <v>0.007045204285532236</v>
+        <v>0.004198955371975899</v>
       </c>
       <c r="FP2">
-        <v>1.474592772865435E-05</v>
+        <v>-0.002608192851766944</v>
       </c>
       <c r="FQ2">
-        <v>0.001215727999806404</v>
+        <v>7.492100849049166E-05</v>
       </c>
       <c r="FR2">
-        <v>-0.01452999655157328</v>
+        <v>-0.01430692058056593</v>
       </c>
       <c r="FS2">
-        <v>0.003005177481099963</v>
+        <v>0.00162004679441452</v>
       </c>
       <c r="FT2">
-        <v>-0.001049264101311564</v>
+        <v>-0.002574251731857657</v>
       </c>
       <c r="FU2">
-        <v>0.06108804419636726</v>
+        <v>0.06051494926214218</v>
       </c>
       <c r="FV2">
-        <v>0.006271150894463062</v>
+        <v>0.003820584854111075</v>
       </c>
       <c r="FW2">
-        <v>0.02795990742743015</v>
+        <v>0.02735424973070621</v>
       </c>
       <c r="FX2">
-        <v>0.0008122482104226947</v>
+        <v>0.0002701517951209098</v>
       </c>
       <c r="FY2">
-        <v>0.01181433442980051</v>
+        <v>0.007804861757904291</v>
       </c>
       <c r="FZ2">
-        <v>0.01112893223762512</v>
+        <v>0.01157076563686132</v>
       </c>
       <c r="GA2">
-        <v>0.0007796711288392544</v>
+        <v>0.002853112993761897</v>
       </c>
       <c r="GB2">
-        <v>-0.01046083308756351</v>
+        <v>-0.00793249998241663</v>
       </c>
       <c r="GC2">
-        <v>-0.01145495288074017</v>
+        <v>-0.01296084094792604</v>
       </c>
       <c r="GD2">
-        <v>0.05860224738717079</v>
+        <v>0.0576348640024662</v>
       </c>
       <c r="GE2">
-        <v>-0.002318264450877905</v>
+        <v>-0.003549375338479877</v>
       </c>
       <c r="GF2">
-        <v>-0.04720186442136765</v>
+        <v>-0.04506972804665565</v>
       </c>
       <c r="GG2">
-        <v>-0.06850656121969223</v>
+        <v>-0.06712485104799271</v>
       </c>
       <c r="GH2">
-        <v>-0.004946016706526279</v>
+        <v>-0.0017011275049299</v>
       </c>
       <c r="GI2">
-        <v>-0.003070050152018666</v>
+        <v>-0.001639393856748939</v>
       </c>
       <c r="GJ2">
-        <v>0.0009174692095257342</v>
+        <v>0.005110204685479403</v>
       </c>
       <c r="GK2">
-        <v>-0.06592348963022232</v>
+        <v>-0.06241777166724205</v>
       </c>
       <c r="GL2">
-        <v>-0.02613114751875401</v>
+        <v>-0.02539594285190105</v>
       </c>
       <c r="GM2">
-        <v>0.03884817659854889</v>
+        <v>0.03810602799057961</v>
       </c>
       <c r="GN2">
-        <v>-0.04710608720779419</v>
+        <v>-0.04549608007073402</v>
       </c>
       <c r="GO2">
-        <v>0.1214545965194702</v>
+        <v>0.1215951442718506</v>
       </c>
       <c r="GP2">
-        <v>-0.02656704932451248</v>
+        <v>-0.02811899222433567</v>
       </c>
       <c r="GQ2">
-        <v>-0.0001807207445381209</v>
+        <v>-0.000291973032290116</v>
       </c>
       <c r="GR2">
-        <v>0.00601105485111475</v>
+        <v>0.00787927582859993</v>
       </c>
       <c r="GS2">
-        <v>-0.02635655552148819</v>
+        <v>-0.02422610856592655</v>
       </c>
       <c r="GT2">
-        <v>-0.001061458606272936</v>
+        <v>-0.00150603533256799</v>
       </c>
       <c r="GU2">
-        <v>-0.002949876012280583</v>
+        <v>-0.002436890499666333</v>
       </c>
       <c r="GV2">
-        <v>-0.004227621480822563</v>
+        <v>-0.003430264536291361</v>
       </c>
       <c r="GW2">
-        <v>-0.01932523399591446</v>
+        <v>-0.01813015900552273</v>
       </c>
       <c r="GX2">
-        <v>0.00853389035910368</v>
+        <v>0.006656460464000702</v>
       </c>
       <c r="GY2">
-        <v>-0.01239343825727701</v>
+        <v>-0.01379598490893841</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Real Estate.xlsx
+++ b/static/Models/Regression/Equation/Real Estate.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02470947802066803</v>
+        <v>0.03003894165158272</v>
       </c>
       <c r="C2">
-        <v>-0.05581778660416603</v>
+        <v>-0.04707266762852669</v>
       </c>
       <c r="D2">
-        <v>0.07968620210886002</v>
+        <v>0.0684402734041214</v>
       </c>
       <c r="E2">
-        <v>-0.03762219846248627</v>
+        <v>-0.0281942393630743</v>
       </c>
       <c r="F2">
-        <v>0.002061054576188326</v>
+        <v>-0.002611570758745074</v>
       </c>
       <c r="G2">
-        <v>0.05280048400163651</v>
+        <v>0.05820904299616814</v>
       </c>
       <c r="H2">
-        <v>-0.011915716342628</v>
+        <v>-0.008091568015515804</v>
       </c>
       <c r="I2">
-        <v>-0.01746230944991112</v>
+        <v>-0.01465892978012562</v>
       </c>
       <c r="J2">
-        <v>-0.08877066522836685</v>
+        <v>-0.08187875896692276</v>
       </c>
       <c r="K2">
-        <v>0.001013130298815668</v>
+        <v>0.00187979731708765</v>
       </c>
       <c r="L2">
-        <v>-0.005907876882702112</v>
+        <v>-0.001402560621500015</v>
       </c>
       <c r="M2">
-        <v>-0.001806645886972547</v>
+        <v>-0.004762760829180479</v>
       </c>
       <c r="N2">
-        <v>-0.007990467362105846</v>
+        <v>-0.005195064004510641</v>
       </c>
       <c r="O2">
-        <v>0.03117354214191437</v>
+        <v>0.02457188814878464</v>
       </c>
       <c r="P2">
-        <v>0.02107718400657177</v>
+        <v>0.03459364175796509</v>
       </c>
       <c r="Q2">
-        <v>-0.0399496778845787</v>
+        <v>-0.03541922569274902</v>
       </c>
       <c r="R2">
-        <v>0.009676731191575527</v>
+        <v>-0.001237023388966918</v>
       </c>
       <c r="S2">
-        <v>0.04681756719946861</v>
+        <v>0.0570327490568161</v>
       </c>
       <c r="T2">
-        <v>-0.1304855346679688</v>
+        <v>-0.1312329173088074</v>
       </c>
       <c r="U2">
-        <v>0.09258484095335007</v>
+        <v>0.0968952551484108</v>
       </c>
       <c r="V2">
-        <v>-0.002925107721239328</v>
+        <v>-0.001823275699280202</v>
       </c>
       <c r="W2">
-        <v>0.02886161208152771</v>
+        <v>0.02350119315087795</v>
       </c>
       <c r="X2">
-        <v>-0.0001685794268269092</v>
+        <v>0.001993956975638866</v>
       </c>
       <c r="Y2">
-        <v>0.05034304037690163</v>
+        <v>0.05852983891963959</v>
       </c>
       <c r="Z2">
-        <v>-0.02901826985180378</v>
+        <v>-0.02832641452550888</v>
       </c>
       <c r="AA2">
-        <v>0.009460807777941227</v>
+        <v>0.007324879989027977</v>
       </c>
       <c r="AB2">
-        <v>0.0368318185210228</v>
+        <v>0.03608914837241173</v>
       </c>
       <c r="AC2">
-        <v>0.03431998193264008</v>
+        <v>0.03751882538199425</v>
       </c>
       <c r="AD2">
-        <v>0.06275280565023422</v>
+        <v>0.06215421855449677</v>
       </c>
       <c r="AE2">
-        <v>-0.03926758840680122</v>
+        <v>-0.03815433382987976</v>
       </c>
       <c r="AF2">
-        <v>0.003402893897145987</v>
+        <v>0.0008901499677449465</v>
       </c>
       <c r="AG2">
-        <v>0.1406602412462234</v>
+        <v>0.1431021839380264</v>
       </c>
       <c r="AH2">
-        <v>0.06487444043159485</v>
+        <v>0.06827723234891891</v>
       </c>
       <c r="AI2">
-        <v>-0.04798993095755577</v>
+        <v>-0.03942693024873734</v>
       </c>
       <c r="AJ2">
-        <v>-0.01059975754469633</v>
+        <v>-0.009197352454066277</v>
       </c>
       <c r="AK2">
-        <v>0.009293992072343826</v>
+        <v>0.007613669149577618</v>
       </c>
       <c r="AL2">
-        <v>0.01215864811092615</v>
+        <v>0.006401112303137779</v>
       </c>
       <c r="AM2">
-        <v>-0.00424167001619935</v>
+        <v>0.003683095099404454</v>
       </c>
       <c r="AN2">
-        <v>0.1799708604812622</v>
+        <v>0.1804296970367432</v>
       </c>
       <c r="AO2">
-        <v>0.08784697949886322</v>
+        <v>0.09063945710659027</v>
       </c>
       <c r="AP2">
-        <v>0.07045231759548187</v>
+        <v>0.06858460605144501</v>
       </c>
       <c r="AQ2">
-        <v>0.01467195898294449</v>
+        <v>0.008139702491462231</v>
       </c>
       <c r="AR2">
-        <v>0.1339564621448517</v>
+        <v>0.1370578557252884</v>
       </c>
       <c r="AS2">
-        <v>0.07414955645799637</v>
+        <v>0.07430225610733032</v>
       </c>
       <c r="AT2">
-        <v>0.0479465126991272</v>
+        <v>0.04354312643408775</v>
       </c>
       <c r="AU2">
-        <v>-0.02542603015899658</v>
+        <v>-0.03089920431375504</v>
       </c>
       <c r="AV2">
-        <v>0.1097221821546555</v>
+        <v>0.1135066226124763</v>
       </c>
       <c r="AW2">
-        <v>0.03882913663983345</v>
+        <v>0.03463513031601906</v>
       </c>
       <c r="AX2">
-        <v>0.002948725363239646</v>
+        <v>0.005246305838227272</v>
       </c>
       <c r="AY2">
-        <v>-0.05621380731463432</v>
+        <v>-0.05198950320482254</v>
       </c>
       <c r="AZ2">
-        <v>0.04586047679185867</v>
+        <v>0.04778974875807762</v>
       </c>
       <c r="BA2">
-        <v>-0.02230997197329998</v>
+        <v>-0.03600655496120453</v>
       </c>
       <c r="BB2">
-        <v>0.05221961811184883</v>
+        <v>0.05528685823082924</v>
       </c>
       <c r="BC2">
-        <v>-0.004287480842322111</v>
+        <v>-0.003096463391557336</v>
       </c>
       <c r="BD2">
-        <v>-0.03934574872255325</v>
+        <v>-0.03998369351029396</v>
       </c>
       <c r="BE2">
-        <v>-0.004270708654075861</v>
+        <v>0.001389043056406081</v>
       </c>
       <c r="BF2">
-        <v>0.07805455476045609</v>
+        <v>0.08116763830184937</v>
       </c>
       <c r="BG2">
-        <v>0.01223788317292929</v>
+        <v>0.01324518863111734</v>
       </c>
       <c r="BH2">
-        <v>-0.001768609625287354</v>
+        <v>0.001600226270966232</v>
       </c>
       <c r="BI2">
-        <v>0.1191777214407921</v>
+        <v>0.1175966113805771</v>
       </c>
       <c r="BJ2">
-        <v>-0.001463422318920493</v>
+        <v>-0.004949662834405899</v>
       </c>
       <c r="BK2">
-        <v>-0.000172835512785241</v>
+        <v>0.004632726311683655</v>
       </c>
       <c r="BL2">
-        <v>-0.005402404814958572</v>
+        <v>-0.001363069750368595</v>
       </c>
       <c r="BM2">
-        <v>0.0964784249663353</v>
+        <v>0.0977710634469986</v>
       </c>
       <c r="BN2">
-        <v>-0.03272083029150963</v>
+        <v>-0.02669349685311317</v>
       </c>
       <c r="BO2">
-        <v>0.05029685795307159</v>
+        <v>0.04990833625197411</v>
       </c>
       <c r="BP2">
-        <v>0.03997182473540306</v>
+        <v>0.04715127125382423</v>
       </c>
       <c r="BQ2">
-        <v>-0.005350987426936626</v>
+        <v>-0.003340646624565125</v>
       </c>
       <c r="BR2">
-        <v>0.005816734861582518</v>
+        <v>0.0007095288601703942</v>
       </c>
       <c r="BS2">
-        <v>-0.007820174098014832</v>
+        <v>-0.005657303147017956</v>
       </c>
       <c r="BT2">
-        <v>-0.004493263550102711</v>
+        <v>-0.004583374597132206</v>
       </c>
       <c r="BU2">
-        <v>0.003394220024347305</v>
+        <v>0.009392037056386471</v>
       </c>
       <c r="BV2">
-        <v>-0.02790538594126701</v>
+        <v>-0.02271087281405926</v>
       </c>
       <c r="BW2">
-        <v>0.003439279273152351</v>
+        <v>-0.0006675267941318452</v>
       </c>
       <c r="BX2">
-        <v>-0.002799737267196178</v>
+        <v>0.005576062947511673</v>
       </c>
       <c r="BY2">
-        <v>0.001065711840055883</v>
+        <v>0.007020104210823774</v>
       </c>
       <c r="BZ2">
-        <v>0.03524918109178543</v>
+        <v>0.04422235116362572</v>
       </c>
       <c r="CA2">
-        <v>0.04356320202350616</v>
+        <v>0.03882689774036407</v>
       </c>
       <c r="CB2">
-        <v>-0.131732702255249</v>
+        <v>-0.1243409216403961</v>
       </c>
       <c r="CC2">
-        <v>-0.002047771122306585</v>
+        <v>0.00114289135672152</v>
       </c>
       <c r="CD2">
-        <v>-0.0115194246172905</v>
+        <v>-0.01202611159533262</v>
       </c>
       <c r="CE2">
-        <v>-0.01317406073212624</v>
+        <v>-0.008404162712395191</v>
       </c>
       <c r="CF2">
-        <v>-0.03302682191133499</v>
+        <v>-0.03319602832198143</v>
       </c>
       <c r="CG2">
-        <v>0.1273086071014404</v>
+        <v>0.1253171563148499</v>
       </c>
       <c r="CH2">
-        <v>-0.07569360733032227</v>
+        <v>-0.06934995204210281</v>
       </c>
       <c r="CI2">
-        <v>0.03959116712212563</v>
+        <v>0.03909088671207428</v>
       </c>
       <c r="CJ2">
-        <v>0.08534795790910721</v>
+        <v>0.09165855497121811</v>
       </c>
       <c r="CK2">
-        <v>-0.01203597895801067</v>
+        <v>-0.009833776392042637</v>
       </c>
       <c r="CL2">
-        <v>-0.001127507188357413</v>
+        <v>0.00196199375204742</v>
       </c>
       <c r="CM2">
-        <v>0.08480599522590637</v>
+        <v>0.08262389153242111</v>
       </c>
       <c r="CN2">
-        <v>0.001038549933582544</v>
+        <v>0.004499259870499372</v>
       </c>
       <c r="CO2">
-        <v>-0.002290046773850918</v>
+        <v>-0.00229962170124054</v>
       </c>
       <c r="CP2">
-        <v>0.07126564532518387</v>
+        <v>0.07962393015623093</v>
       </c>
       <c r="CQ2">
-        <v>0.01344612892717123</v>
+        <v>-0.003187469439581037</v>
       </c>
       <c r="CR2">
-        <v>0.006822461262345314</v>
+        <v>0.008312300778925419</v>
       </c>
       <c r="CS2">
-        <v>0.004479011055082083</v>
+        <v>0.004524172749370337</v>
       </c>
       <c r="CT2">
-        <v>-0.00863976776599884</v>
+        <v>-0.005831923335790634</v>
       </c>
       <c r="CU2">
-        <v>0.0130802970379591</v>
+        <v>0.01822047308087349</v>
       </c>
       <c r="CV2">
-        <v>0.005718637723475695</v>
+        <v>0.009690588340163231</v>
       </c>
       <c r="CW2">
-        <v>-0.1277773529291153</v>
+        <v>-0.1306801289319992</v>
       </c>
       <c r="CX2">
-        <v>0.0007495025056414306</v>
+        <v>0.0007004021899774671</v>
       </c>
       <c r="CY2">
-        <v>-0.01880057714879513</v>
+        <v>-0.0217340886592865</v>
       </c>
       <c r="CZ2">
-        <v>-0.01022027246654034</v>
+        <v>-0.01216861791908741</v>
       </c>
       <c r="DA2">
-        <v>-0.1347926557064056</v>
+        <v>-0.1325707286596298</v>
       </c>
       <c r="DB2">
-        <v>-0.05080089718103409</v>
+        <v>-0.05539514496922493</v>
       </c>
       <c r="DC2">
-        <v>0.002238657791167498</v>
+        <v>-0.003574834670871496</v>
       </c>
       <c r="DD2">
-        <v>0.2729709446430206</v>
+        <v>0.2831434607505798</v>
       </c>
       <c r="DE2">
-        <v>0.01139459572732449</v>
+        <v>0.01123534888029099</v>
       </c>
       <c r="DF2">
-        <v>0.005664901807904243</v>
+        <v>0.008933967910706997</v>
       </c>
       <c r="DG2">
-        <v>-0.006696050520986319</v>
+        <v>-0.002624609740450978</v>
       </c>
       <c r="DH2">
-        <v>-0.1263159811496735</v>
+        <v>-0.1270310431718826</v>
       </c>
       <c r="DI2">
-        <v>0.009269298054277897</v>
+        <v>0.006765352096408606</v>
       </c>
       <c r="DJ2">
-        <v>0.05709386989474297</v>
+        <v>0.05262699350714684</v>
       </c>
       <c r="DK2">
-        <v>-0.06298858672380447</v>
+        <v>-0.06026735901832581</v>
       </c>
       <c r="DL2">
-        <v>-0.1470618396997452</v>
+        <v>-0.1566444486379623</v>
       </c>
       <c r="DM2">
-        <v>0.06228926777839661</v>
+        <v>0.0511668473482132</v>
       </c>
       <c r="DN2">
-        <v>-0.08260635286569595</v>
+        <v>-0.08062437176704407</v>
       </c>
       <c r="DO2">
-        <v>0.04685887694358826</v>
+        <v>0.05527333170175552</v>
       </c>
       <c r="DP2">
-        <v>0.04044623300433159</v>
+        <v>0.04857310652732849</v>
       </c>
       <c r="DQ2">
-        <v>0.007690785452723503</v>
+        <v>0.007086480036377907</v>
       </c>
       <c r="DR2">
-        <v>-0.003497350960969925</v>
+        <v>-0.006804351229220629</v>
       </c>
       <c r="DS2">
-        <v>-0.06284692883491516</v>
+        <v>-0.05366121977567673</v>
       </c>
       <c r="DT2">
-        <v>0.01389081403613091</v>
+        <v>0.011250632815063</v>
       </c>
       <c r="DU2">
-        <v>0.07689534872770309</v>
+        <v>0.07164879888296127</v>
       </c>
       <c r="DV2">
-        <v>0.003539543598890305</v>
+        <v>0.008583265356719494</v>
       </c>
       <c r="DW2">
-        <v>0.01414982881397009</v>
+        <v>0.01919982209801674</v>
       </c>
       <c r="DX2">
-        <v>0.09530166536569595</v>
+        <v>0.09679993242025375</v>
       </c>
       <c r="DY2">
-        <v>0.04995136708021164</v>
+        <v>0.04378369823098183</v>
       </c>
       <c r="DZ2">
-        <v>0.0001428475661668926</v>
+        <v>0.0009161261841654778</v>
       </c>
       <c r="EA2">
-        <v>0.03257746994495392</v>
+        <v>0.04061912000179291</v>
       </c>
       <c r="EB2">
-        <v>-0.01118927169591188</v>
+        <v>-0.0124684190377593</v>
       </c>
       <c r="EC2">
-        <v>-0.004548060242086649</v>
+        <v>-0.004172304179519415</v>
       </c>
       <c r="ED2">
-        <v>0.1601151823997498</v>
+        <v>0.1599597185850143</v>
       </c>
       <c r="EE2">
-        <v>-0.005655800923705101</v>
+        <v>-0.005193476099520922</v>
       </c>
       <c r="EF2">
-        <v>-0.109167218208313</v>
+        <v>-0.1092305332422256</v>
       </c>
       <c r="EG2">
-        <v>0.01213796250522137</v>
+        <v>0.01444320008158684</v>
       </c>
       <c r="EH2">
-        <v>-0.0442986749112606</v>
+        <v>-0.03883975744247437</v>
       </c>
       <c r="EI2">
-        <v>-0.211196169257164</v>
+        <v>-0.2019118815660477</v>
       </c>
       <c r="EJ2">
-        <v>-0.07768221199512482</v>
+        <v>-0.08097333461046219</v>
       </c>
       <c r="EK2">
-        <v>0.002620130777359009</v>
+        <v>0.005202142987400293</v>
       </c>
       <c r="EL2">
-        <v>0.0003721690445672721</v>
+        <v>-0.0001571119792060927</v>
       </c>
       <c r="EM2">
-        <v>0.05622145906090736</v>
+        <v>0.06545274704694748</v>
       </c>
       <c r="EN2">
-        <v>-0.08885709941387177</v>
+        <v>-0.08447758853435516</v>
       </c>
       <c r="EO2">
-        <v>0.06986041367053986</v>
+        <v>0.07170729339122772</v>
       </c>
       <c r="EP2">
-        <v>0.1115812584757805</v>
+        <v>0.1151254996657372</v>
       </c>
       <c r="EQ2">
-        <v>0.04831689596176147</v>
+        <v>0.04227429628372192</v>
       </c>
       <c r="ER2">
-        <v>0.007719743531197309</v>
+        <v>0.003132849931716919</v>
       </c>
       <c r="ES2">
-        <v>-0.06048832461237907</v>
+        <v>-0.05020566284656525</v>
       </c>
       <c r="ET2">
-        <v>0.01518769934773445</v>
+        <v>0.02821880765259266</v>
       </c>
       <c r="EU2">
-        <v>-0.01971938274800777</v>
+        <v>-0.01640153117477894</v>
       </c>
       <c r="EV2">
-        <v>-0.03716301918029785</v>
+        <v>-0.03077763691544533</v>
       </c>
       <c r="EW2">
-        <v>0.08852881193161011</v>
+        <v>0.07283179461956024</v>
       </c>
       <c r="EX2">
-        <v>0.09864449501037598</v>
+        <v>0.09494447708129883</v>
       </c>
       <c r="EY2">
-        <v>-0.0002799092617351562</v>
+        <v>0.003123294794932008</v>
       </c>
       <c r="EZ2">
-        <v>-0.1139024123549461</v>
+        <v>-0.1199691891670227</v>
       </c>
       <c r="FA2">
-        <v>0.001264391117729247</v>
+        <v>0.002797237131744623</v>
       </c>
       <c r="FB2">
-        <v>0.0018323176773265</v>
+        <v>0.001051429426297545</v>
       </c>
       <c r="FC2">
-        <v>-0.008319627493619919</v>
+        <v>-0.008237099274992943</v>
       </c>
       <c r="FD2">
-        <v>0.007668129168450832</v>
+        <v>0.004582488443702459</v>
       </c>
       <c r="FE2">
-        <v>0.1153382733464241</v>
+        <v>0.119923859834671</v>
       </c>
       <c r="FF2">
-        <v>0.1163549050688744</v>
+        <v>0.1144615113735199</v>
       </c>
       <c r="FG2">
-        <v>0.122501015663147</v>
+        <v>0.1287671774625778</v>
       </c>
       <c r="FH2">
-        <v>0.00118134415242821</v>
+        <v>0.002807906130328774</v>
       </c>
       <c r="FI2">
-        <v>0.005932776723057032</v>
+        <v>0.005457627587020397</v>
       </c>
       <c r="FJ2">
-        <v>-0.07025787234306335</v>
+        <v>-0.05911635980010033</v>
       </c>
       <c r="FK2">
-        <v>-0.04416182637214661</v>
+        <v>-0.03890879824757576</v>
       </c>
       <c r="FL2">
-        <v>-0.07683207839727402</v>
+        <v>-0.07516758888959885</v>
       </c>
       <c r="FM2">
-        <v>0.03655953332781792</v>
+        <v>0.04704409837722778</v>
       </c>
       <c r="FN2">
-        <v>-0.005340828560292721</v>
+        <v>-0.001019970630295575</v>
       </c>
       <c r="FO2">
-        <v>0.004198955371975899</v>
+        <v>-0.001893665990792215</v>
       </c>
       <c r="FP2">
-        <v>-0.002608192851766944</v>
+        <v>-0.004217899870127439</v>
       </c>
       <c r="FQ2">
-        <v>7.492100849049166E-05</v>
+        <v>-0.0005544985760934651</v>
       </c>
       <c r="FR2">
-        <v>-0.01430692058056593</v>
+        <v>-0.01531770452857018</v>
       </c>
       <c r="FS2">
-        <v>0.00162004679441452</v>
+        <v>0.003157020546495914</v>
       </c>
       <c r="FT2">
-        <v>-0.002574251731857657</v>
+        <v>-0.00328495679423213</v>
       </c>
       <c r="FU2">
-        <v>0.06051494926214218</v>
+        <v>0.06004009768366814</v>
       </c>
       <c r="FV2">
-        <v>0.003820584854111075</v>
+        <v>0.006778725888580084</v>
       </c>
       <c r="FW2">
-        <v>0.02735424973070621</v>
+        <v>0.02847142331302166</v>
       </c>
       <c r="FX2">
-        <v>0.0002701517951209098</v>
+        <v>0.004171612206846476</v>
       </c>
       <c r="FY2">
-        <v>0.007804861757904291</v>
+        <v>-0.001856263726949692</v>
       </c>
       <c r="FZ2">
-        <v>0.01157076563686132</v>
+        <v>0.006499690469354391</v>
       </c>
       <c r="GA2">
-        <v>0.002853112993761897</v>
+        <v>0.01030617859214544</v>
       </c>
       <c r="GB2">
-        <v>-0.00793249998241663</v>
+        <v>-0.004215166438370943</v>
       </c>
       <c r="GC2">
-        <v>-0.01296084094792604</v>
+        <v>-0.01147159747779369</v>
       </c>
       <c r="GD2">
-        <v>0.0576348640024662</v>
+        <v>0.05619075149297714</v>
       </c>
       <c r="GE2">
-        <v>-0.003549375338479877</v>
+        <v>-0.003858105512335896</v>
       </c>
       <c r="GF2">
-        <v>-0.04506972804665565</v>
+        <v>-0.03976139798760414</v>
       </c>
       <c r="GG2">
-        <v>-0.06712485104799271</v>
+        <v>-0.06389416754245758</v>
       </c>
       <c r="GH2">
-        <v>-0.0017011275049299</v>
+        <v>0.002812017453834414</v>
       </c>
       <c r="GI2">
-        <v>-0.001639393856748939</v>
+        <v>-0.005632231011986732</v>
       </c>
       <c r="GJ2">
-        <v>0.005110204685479403</v>
+        <v>0.0005477958475239575</v>
       </c>
       <c r="GK2">
-        <v>-0.06241777166724205</v>
+        <v>-0.05557660758495331</v>
       </c>
       <c r="GL2">
-        <v>-0.02539594285190105</v>
+        <v>-0.01745241321623325</v>
       </c>
       <c r="GM2">
-        <v>0.03810602799057961</v>
+        <v>0.04034698009490967</v>
       </c>
       <c r="GN2">
-        <v>-0.04549608007073402</v>
+        <v>-0.04650068283081055</v>
       </c>
       <c r="GO2">
-        <v>0.1215951442718506</v>
+        <v>0.1272116154432297</v>
       </c>
       <c r="GP2">
-        <v>-0.02811899222433567</v>
+        <v>-0.0274922139942646</v>
       </c>
       <c r="GQ2">
-        <v>-0.000291973032290116</v>
+        <v>0.003485246794298291</v>
       </c>
       <c r="GR2">
-        <v>0.00787927582859993</v>
+        <v>0.003585495054721832</v>
       </c>
       <c r="GS2">
-        <v>-0.02422610856592655</v>
+        <v>-0.01905938610434532</v>
       </c>
       <c r="GT2">
-        <v>-0.00150603533256799</v>
+        <v>-0.004694725386798382</v>
       </c>
       <c r="GU2">
-        <v>-0.002436890499666333</v>
+        <v>-0.006269306410104036</v>
       </c>
       <c r="GV2">
-        <v>-0.003430264536291361</v>
+        <v>0.0009059049189090729</v>
       </c>
       <c r="GW2">
-        <v>-0.01813015900552273</v>
+        <v>-0.01933806203305721</v>
       </c>
       <c r="GX2">
-        <v>0.006656460464000702</v>
+        <v>0.00553616788238287</v>
       </c>
       <c r="GY2">
-        <v>-0.01379598490893841</v>
+        <v>-0.01412788406014442</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Real Estate.xlsx
+++ b/static/Models/Regression/Equation/Real Estate.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03628052026033401</v>
+        <v>0.04110832139849663</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04465742781758308</v>
+        <v>-0.05289217829704285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06434457749128342</v>
+        <v>0.06527817994356155</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02579053863883018</v>
+        <v>-0.02541696466505527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004278398409951478</v>
+        <v>0.002277682768180966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06184952706098557</v>
+        <v>0.06245227158069611</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.003478916129097342</v>
+        <v>-0.009489974938333035</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01086101774126291</v>
+        <v>-0.01155720464885235</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07933566719293594</v>
+        <v>-0.07734199613332748</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0008504105499014258</v>
+        <v>0.001035166555084288</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.006074351724237204</v>
+        <v>-0.0009453540551476181</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0003727373259607702</v>
+        <v>-0.009266717359423637</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.008558932691812515</v>
+        <v>-0.003065266413614154</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02309031784534454</v>
+        <v>0.02187539823353291</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03524306416511536</v>
+        <v>0.03758881613612175</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.03981973603367805</v>
+        <v>-0.04266507923603058</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.003649892285466194</v>
+        <v>-0.003547324100509286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05277132615447044</v>
+        <v>0.0485634058713913</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.134622186422348</v>
+        <v>-0.1372304558753967</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09245734661817551</v>
+        <v>0.0919213742017746</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003797137876972556</v>
+        <v>-0.005437776912003756</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0283918809145689</v>
+        <v>0.03262278065085411</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0002037253725575283</v>
+        <v>-0.007005148567259312</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06427041441202164</v>
+        <v>0.06344249099493027</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02511482499539852</v>
+        <v>-0.03431900963187218</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006346685811877251</v>
+        <v>0.007724303752183914</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04141419380903244</v>
+        <v>0.03718980774283409</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.041573166847229</v>
+        <v>0.03757520392537117</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06017409265041351</v>
+        <v>0.05889522284269333</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.04423394054174423</v>
+        <v>-0.0447419136762619</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.001045244163833559</v>
+        <v>-0.00700896792113781</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1475563496351242</v>
+        <v>0.1391214579343796</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06572076678276062</v>
+        <v>0.07336025685071945</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.04287785664200783</v>
+        <v>-0.05524861440062523</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0156596302986145</v>
+        <v>-0.01242033671587706</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004786732140928507</v>
+        <v>0.004322951193898916</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01259251218289137</v>
+        <v>0.01665101200342178</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.009712298400700092</v>
+        <v>0.002398008015006781</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1759742498397827</v>
+        <v>0.1703651696443558</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.09094006568193436</v>
+        <v>0.0835263803601265</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.07317803800106049</v>
+        <v>0.07581807672977448</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.004754200112074614</v>
+        <v>-0.003491676412522793</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.133166566491127</v>
+        <v>0.1274095177650452</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0692276731133461</v>
+        <v>0.06340577453374863</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04882956296205521</v>
+        <v>0.04210077598690987</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0270871464163065</v>
+        <v>-0.02671236358582973</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.119892843067646</v>
+        <v>0.1164657473564148</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02985680475831032</v>
+        <v>0.03009891696274281</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.007483497262001038</v>
+        <v>0.000193526633665897</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.04708743840456009</v>
+        <v>-0.0495767742395401</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04995136335492134</v>
+        <v>0.05799512192606926</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.03128820285201073</v>
+        <v>-0.03664207831025124</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.06039062142372131</v>
+        <v>0.05096959695219994</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.005669913254678249</v>
+        <v>0.0002489763428457081</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.04187273234128952</v>
+        <v>-0.0428818017244339</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.003136863932013512</v>
+        <v>-0.002321411389857531</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.08565476536750793</v>
+        <v>0.07657501846551895</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0120038315653801</v>
+        <v>0.01053671725094318</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.005357040092349052</v>
+        <v>0.004678072407841682</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1136844679713249</v>
+        <v>0.1110975816845894</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0006520059541799128</v>
+        <v>0.001896747387945652</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.002072625095024705</v>
+        <v>-0.004188313148915768</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.0003184496890753508</v>
+        <v>0.004745970014482737</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.102559857070446</v>
+        <v>0.1053142324090004</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.03053410537540913</v>
+        <v>-0.02637008763849735</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05660204961895943</v>
+        <v>0.06005127355456352</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04231461137533188</v>
+        <v>0.05013322457671165</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.009119611233472824</v>
+        <v>-0.004402800928801298</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.004442830570042133</v>
+        <v>0.007523754611611366</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.005341027863323689</v>
+        <v>-0.005534215830266476</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.006025960668921471</v>
+        <v>-0.005254271440207958</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.006683959160000086</v>
+        <v>0.004460589028894901</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0185263492166996</v>
+        <v>-0.01770003698766232</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003770101582631469</v>
+        <v>0.003056877292692661</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.006264581810683012</v>
+        <v>0.0117969699203968</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.002967829583212733</v>
+        <v>-0.004413772374391556</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.04721522703766823</v>
+        <v>0.04851796478033066</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0406857430934906</v>
+        <v>0.04172293469309807</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1257495135068893</v>
+        <v>-0.1323168128728867</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0009280383237637579</v>
+        <v>0.0003432608209550381</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.006927242502570152</v>
+        <v>-0.002154366346076131</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.01088327914476395</v>
+        <v>-0.01336389314383268</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.03707848861813545</v>
+        <v>-0.03122468292713165</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1220754832029343</v>
+        <v>0.1308529376983643</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.07431554794311523</v>
+        <v>-0.07620213180780411</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03678249940276146</v>
+        <v>0.03541309759020805</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.09450656175613403</v>
+        <v>0.09069286286830902</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0144236795604229</v>
+        <v>-0.01719952374696732</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001371797290630639</v>
+        <v>0.001273962785489857</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0784381628036499</v>
+        <v>0.07105420529842377</v>
       </c>
       <c r="CN2" t="n">
-        <v>4.964152321917936e-05</v>
+        <v>0.00447662640362978</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0004903838853351772</v>
+        <v>-0.0002976638206746429</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.07354681193828583</v>
+        <v>0.07499471306800842</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001626805053092539</v>
+        <v>-0.007793982978910208</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00412464328110218</v>
+        <v>0.003496879478916526</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001503671403042972</v>
+        <v>0.0003282819525338709</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.006792925763875246</v>
+        <v>-0.006939652375876904</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0132354274392128</v>
+        <v>0.008189425803720951</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01582424715161324</v>
+        <v>0.01147724222391844</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.1318665146827698</v>
+        <v>-0.120050311088562</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0032149120233953</v>
+        <v>-0.0003975912986788899</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.02613456733524799</v>
+        <v>-0.02569575980305672</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.009190625511109829</v>
+        <v>-0.006167171057313681</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.1271162033081055</v>
+        <v>-0.119569256901741</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05058136954903603</v>
+        <v>-0.04864996671676636</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0003589356783777475</v>
+        <v>0.001532258931547403</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2795325219631195</v>
+        <v>0.2843232452869415</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.008606231771409512</v>
+        <v>0.00706425728276372</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.005639947019517422</v>
+        <v>0.01048296131193638</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.004524561576545238</v>
+        <v>-0.002946622436866164</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.1241836100816727</v>
+        <v>-0.1270914822816849</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.001256669987924397</v>
+        <v>0.0108233168721199</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.04793780669569969</v>
+        <v>0.0481233224272728</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.05725463852286339</v>
+        <v>-0.05208750814199448</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1614288687705994</v>
+        <v>-0.1534519046545029</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.05518544837832451</v>
+        <v>0.04762383922934532</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.08222683519124985</v>
+        <v>-0.08339512348175049</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.05794870853424072</v>
+        <v>0.06228732690215111</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.050749272108078</v>
+        <v>0.05477261915802956</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.006170514971017838</v>
+        <v>0.005364472046494484</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01424377039074898</v>
+        <v>-0.02131634205579758</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05791644752025604</v>
+        <v>-0.06590423732995987</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.006844287738204002</v>
+        <v>0.01109451334923506</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.06613510847091675</v>
+        <v>0.07117035239934921</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.005381747148931026</v>
+        <v>0.01228086277842522</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01433580182492733</v>
+        <v>0.02249034494161606</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.09680839627981186</v>
+        <v>0.09570775926113129</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0470779575407505</v>
+        <v>0.04392320290207863</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.005602586083114147</v>
+        <v>0.0104620223864913</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.04451118409633636</v>
+        <v>0.04885615035891533</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.01312731020152569</v>
+        <v>-0.01439675968140364</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.002162031130865216</v>
+        <v>-0.002915037563070655</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1560352891683578</v>
+        <v>0.1535592675209045</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.004803518764674664</v>
+        <v>-0.005454724188894033</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1078078225255013</v>
+        <v>-0.1157929450273514</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0199875719845295</v>
+        <v>0.01667452417314053</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.04170535132288933</v>
+        <v>-0.0428704172372818</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.2004595398902893</v>
+        <v>-0.2008015215396881</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.08631870150566101</v>
+        <v>-0.0853348970413208</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.003089576261118054</v>
+        <v>0.002926877234131098</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002999052172526717</v>
+        <v>0.002382044680416584</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06629692018032074</v>
+        <v>0.06694275140762329</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.08858150243759155</v>
+        <v>-0.0918581560254097</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.06894172728061676</v>
+        <v>0.07762928307056427</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.118474967777729</v>
+        <v>0.1113106459379196</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.04519432783126831</v>
+        <v>0.04642637446522713</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004556003492325544</v>
+        <v>0.001573514891788363</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.05324507877230644</v>
+        <v>-0.0446033664047718</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02579958736896515</v>
+        <v>0.03279208019375801</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.01977390237152576</v>
+        <v>-0.01225496456027031</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.02456211298704147</v>
+        <v>-0.020643075928092</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.07750674337148666</v>
+        <v>0.08081835508346558</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.1003052070736885</v>
+        <v>0.104142352938652</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.00137839955277741</v>
+        <v>0.0009982886258512735</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1154142171144485</v>
+        <v>-0.1180760189890862</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0003724891284946352</v>
+        <v>0.002115244045853615</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.001099085202440619</v>
+        <v>-0.002264659153297544</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.006088622380048037</v>
+        <v>-0.006582909729331732</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.007590772584080696</v>
+        <v>0.01032317336648703</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.1160836443305016</v>
+        <v>0.118028998374939</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.1198450922966003</v>
+        <v>0.1203741654753685</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1238346472382545</v>
+        <v>0.1210332289338112</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.00447863107547164</v>
+        <v>0.001288670813664794</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.004064975772053003</v>
+        <v>0.005120603833347559</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.05358392000198364</v>
+        <v>-0.0596185065805912</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.04386249184608459</v>
+        <v>-0.04773762822151184</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.07864466309547424</v>
+        <v>-0.07956039905548096</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.04866290837526321</v>
+        <v>0.04434989392757416</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.464934004819952e-05</v>
+        <v>0.005089069250971079</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.006522229872643948</v>
+        <v>-0.01319545228034258</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.01079188007861376</v>
+        <v>-0.01372486725449562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002757806330919266</v>
+        <v>0.002067620633170009</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01642528548836708</v>
+        <v>-0.01723578199744225</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001815196010284126</v>
+        <v>0.001869803993031383</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0009643646772019565</v>
+        <v>0.002080895705148578</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.05703650042414665</v>
+        <v>0.05486968532204628</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.002706519328057766</v>
+        <v>-0.0002946470340248197</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0240816306322813</v>
+        <v>0.02142766118049622</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.008173097856342793</v>
+        <v>0.006123547907918692</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.00669786985963583</v>
+        <v>-0.008328437805175781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.006777901202440262</v>
+        <v>0.01454796548932791</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01496979594230652</v>
+        <v>0.006568734999746084</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.006520595401525497</v>
+        <v>-0.001470814808271825</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.01824849098920822</v>
+        <v>-0.01696771942079067</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.05889513343572617</v>
+        <v>0.05950408801436424</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.0009814690565690398</v>
+        <v>-0.001640781410969794</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.04376478865742683</v>
+        <v>-0.04073986783623695</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.06536000967025757</v>
+        <v>-0.06723247468471527</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.0004455374146346003</v>
+        <v>0.005232886876910925</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.01167968101799488</v>
+        <v>-0.01375276688486338</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.003700929693877697</v>
+        <v>-0.004137290641665459</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.05509007349610329</v>
+        <v>-0.06456706672906876</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.01459374185651541</v>
+        <v>-0.02031948231160641</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.03524458780884743</v>
+        <v>0.03987634554505348</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.04121536016464233</v>
+        <v>-0.03879967331886292</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.1227651014924049</v>
+        <v>0.1235696822404861</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.02721848152577877</v>
+        <v>-0.0279057715088129</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.009374498389661312</v>
+        <v>0.008053045719861984</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.006607755087316036</v>
+        <v>0.0132531626150012</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.01712488196790218</v>
+        <v>-0.02394602820277214</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.0002716922026593238</v>
+        <v>-0.000786065764259547</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.00474561657756567</v>
+        <v>-0.002359618432819843</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.0008624681504443288</v>
+        <v>-0.001667241333052516</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.02364221215248108</v>
+        <v>-0.0260645616799593</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.003430499928072095</v>
+        <v>0.001557822804898024</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.01651284471154213</v>
+        <v>-0.01789857819676399</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Real Estate.xlsx
+++ b/static/Models/Regression/Equation/Real Estate.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04110832139849663</v>
+        <v>0.03893166035413742</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05289217829704285</v>
+        <v>-0.05069302022457123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06527817994356155</v>
+        <v>0.07210222631692886</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02541696466505527</v>
+        <v>-0.02936611697077751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002277682768180966</v>
+        <v>-0.001514093484729528</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06245227158069611</v>
+        <v>0.06762715429067612</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.009489974938333035</v>
+        <v>-0.0112353079020977</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01155720464885235</v>
+        <v>-0.008803222328424454</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07734199613332748</v>
+        <v>-0.08108789473772049</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001035166555084288</v>
+        <v>-0.003640996757894754</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0009453540551476181</v>
+        <v>-0.006030694115906954</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.009266717359423637</v>
+        <v>-0.005023668985813856</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.003065266413614154</v>
+        <v>0.001766666769981384</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02187539823353291</v>
+        <v>0.01959185302257538</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03758881613612175</v>
+        <v>0.04070571437478065</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.04266507923603058</v>
+        <v>-0.03699854388833046</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.003547324100509286</v>
+        <v>-0.001677963766269386</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0485634058713913</v>
+        <v>0.05401788279414177</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1372304558753967</v>
+        <v>-0.1355709582567215</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0919213742017746</v>
+        <v>0.0858127698302269</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.005437776912003756</v>
+        <v>-0.000816602143459022</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03262278065085411</v>
+        <v>0.03724799305200577</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.007005148567259312</v>
+        <v>-0.01104273926466703</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06344249099493027</v>
+        <v>0.06976301968097687</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.03431900963187218</v>
+        <v>-0.02914632670581341</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.007724303752183914</v>
+        <v>0.01223185379058123</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03718980774283409</v>
+        <v>0.03485046327114105</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03757520392537117</v>
+        <v>0.0405966117978096</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05889522284269333</v>
+        <v>0.06055578216910362</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0447419136762619</v>
+        <v>-0.05047537386417389</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00700896792113781</v>
+        <v>0.0003482382162474096</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1391214579343796</v>
+        <v>0.1425849944353104</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.07336025685071945</v>
+        <v>0.07045677304267883</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.05524861440062523</v>
+        <v>-0.06002156063914299</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.01242033671587706</v>
+        <v>-0.007536192890256643</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004322951193898916</v>
+        <v>0.008851077407598495</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01665101200342178</v>
+        <v>0.02297180145978928</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.002398008015006781</v>
+        <v>0.004578794818371534</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1703651696443558</v>
+        <v>0.1651789546012878</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0835263803601265</v>
+        <v>0.08491453528404236</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.07581807672977448</v>
+        <v>0.08076149225234985</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.003491676412522793</v>
+        <v>0.00533245038241148</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1274095177650452</v>
+        <v>0.1361232846975327</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.06340577453374863</v>
+        <v>0.05810725316405296</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04210077598690987</v>
+        <v>0.03585848584771156</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02671236358582973</v>
+        <v>-0.02706783264875412</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1164657473564148</v>
+        <v>0.1167611107230186</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.03009891696274281</v>
+        <v>0.02983229048550129</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000193526633665897</v>
+        <v>0.004066381137818098</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.0495767742395401</v>
+        <v>-0.04422305896878242</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05799512192606926</v>
+        <v>0.05620904639363289</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.03664207831025124</v>
+        <v>-0.04418294504284859</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.05096959695219994</v>
+        <v>0.05623351037502289</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002489763428457081</v>
+        <v>-0.003151334589347243</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0428818017244339</v>
+        <v>-0.04167279601097107</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.002321411389857531</v>
+        <v>-0.004527733195573092</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.07657501846551895</v>
+        <v>0.08323388546705246</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01053671725094318</v>
+        <v>0.01302353944629431</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.004678072407841682</v>
+        <v>0.001828879932872951</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1110975816845894</v>
+        <v>0.1133976802229881</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.001896747387945652</v>
+        <v>0.002769267652183771</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.004188313148915768</v>
+        <v>-0.005137001164257526</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.004745970014482737</v>
+        <v>0.00261734751984477</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1053142324090004</v>
+        <v>0.1102255135774612</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.02637008763849735</v>
+        <v>-0.02795778959989548</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.06005127355456352</v>
+        <v>0.05404549464583397</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05013322457671165</v>
+        <v>0.04542111232876778</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.004402800928801298</v>
+        <v>-0.0001350730308331549</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.007523754611611366</v>
+        <v>0.01347806863486767</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.005534215830266476</v>
+        <v>-0.001024464261718094</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.005254271440207958</v>
+        <v>-0.001014384906738997</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.004460589028894901</v>
+        <v>0.008992711082100868</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.01770003698766232</v>
+        <v>-0.01341003272682428</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003056877292692661</v>
+        <v>-0.002477835398167372</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0117969699203968</v>
+        <v>0.008507871069014072</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.004413772374391556</v>
+        <v>0.0006741399993188679</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.04851796478033066</v>
+        <v>0.0443882942199707</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.04172293469309807</v>
+        <v>0.0440126433968544</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1323168128728867</v>
+        <v>-0.1379406154155731</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0003432608209550381</v>
+        <v>0.002528292359784245</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.002154366346076131</v>
+        <v>0.001827106811106205</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.01336389314383268</v>
+        <v>-0.01523993629962206</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.03122468292713165</v>
+        <v>-0.03465631976723671</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1308529376983643</v>
+        <v>0.1274598389863968</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.07620213180780411</v>
+        <v>-0.07225428521633148</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03541309759020805</v>
+        <v>0.03750923648476601</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.09069286286830902</v>
+        <v>0.08828377723693848</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.01719952374696732</v>
+        <v>-0.01334230322390795</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001273962785489857</v>
+        <v>0.00240833917632699</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.07105420529842377</v>
+        <v>0.07200446724891663</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00447662640362978</v>
+        <v>-0.001177047844976187</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0002976638206746429</v>
+        <v>-0.0002925143053289503</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.07499471306800842</v>
+        <v>0.080106221139431</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.007793982978910208</v>
+        <v>-0.01571459136903286</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.003496879478916526</v>
+        <v>0.006394936703145504</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0003282819525338709</v>
+        <v>0.002862829947844148</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.006939652375876904</v>
+        <v>-0.00582193722948432</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.008189425803720951</v>
+        <v>0.002976084593683481</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01147724222391844</v>
+        <v>0.007942402735352516</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.120050311088562</v>
+        <v>-0.1150389388203621</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0003975912986788899</v>
+        <v>-0.008783855475485325</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.02569575980305672</v>
+        <v>-0.02494588866829872</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.006167171057313681</v>
+        <v>-0.009769235737621784</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.119569256901741</v>
+        <v>-0.1236848533153534</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.04864996671676636</v>
+        <v>-0.05294078588485718</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.001532258931547403</v>
+        <v>-0.005468877032399178</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2843232452869415</v>
+        <v>0.2813591063022614</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00706425728276372</v>
+        <v>0.009765320457518101</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.01048296131193638</v>
+        <v>0.007688472513109446</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.002946622436866164</v>
+        <v>-0.006260438356548548</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.1270914822816849</v>
+        <v>-0.1224429830908775</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0108233168721199</v>
+        <v>0.01343737728893757</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0481233224272728</v>
+        <v>0.05355076864361763</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.05208750814199448</v>
+        <v>-0.04999257251620293</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1534519046545029</v>
+        <v>-0.1572684347629547</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.04762383922934532</v>
+        <v>0.04081438481807709</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.08339512348175049</v>
+        <v>-0.08078444004058838</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.06228732690215111</v>
+        <v>0.06600910425186157</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.05477261915802956</v>
+        <v>0.05351679772138596</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.005364472046494484</v>
+        <v>0.006712244357913733</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.02131634205579758</v>
+        <v>-0.01492991484701633</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.06590423732995987</v>
+        <v>-0.06702829897403717</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.01109451334923506</v>
+        <v>0.008175443857908249</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.07117035239934921</v>
+        <v>0.06749871373176575</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.01228086277842522</v>
+        <v>0.01182904746383429</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.02249034494161606</v>
+        <v>0.01407136395573616</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.09570775926113129</v>
+        <v>0.09716104716062546</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.04392320290207863</v>
+        <v>0.0413685031235218</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0104620223864913</v>
+        <v>0.002377523109316826</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.04885615035891533</v>
+        <v>0.04810189455747604</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.01439675968140364</v>
+        <v>-0.01291824597865343</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.002915037563070655</v>
+        <v>0.0004833343846257776</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1535592675209045</v>
+        <v>0.1549745053052902</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.005454724188894033</v>
+        <v>-0.003804922569543123</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1157929450273514</v>
+        <v>-0.1119284257292747</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01667452417314053</v>
+        <v>0.01359275914728642</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0428704172372818</v>
+        <v>-0.04718353599309921</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.2008015215396881</v>
+        <v>-0.2035776376724243</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.0853348970413208</v>
+        <v>-0.07867644727230072</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.002926877234131098</v>
+        <v>0.003548486856743693</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002382044680416584</v>
+        <v>0.001656546723097563</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06694275140762329</v>
+        <v>0.06269589811563492</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0918581560254097</v>
+        <v>-0.09258948266506195</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.07762928307056427</v>
+        <v>0.07440191507339478</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1113106459379196</v>
+        <v>0.1137261167168617</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.04642637446522713</v>
+        <v>0.05179625749588013</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001573514891788363</v>
+        <v>0.001141468528658152</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0446033664047718</v>
+        <v>-0.04640902206301689</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03279208019375801</v>
+        <v>0.03535748645663261</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.01225496456027031</v>
+        <v>-0.01150482892990112</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.020643075928092</v>
+        <v>-0.02009387128055096</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.08081835508346558</v>
+        <v>0.07933521270751953</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.104142352938652</v>
+        <v>0.1083624064922333</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0009982886258512735</v>
+        <v>0.001614396111108363</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1180760189890862</v>
+        <v>-0.1200428977608681</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.002115244045853615</v>
+        <v>0.008902003988623619</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.002264659153297544</v>
+        <v>0.0002421730605419725</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.006582909729331732</v>
+        <v>-0.002250529592856765</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.01032317336648703</v>
+        <v>0.009521818719804287</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.118028998374939</v>
+        <v>0.1179892793297768</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.1203741654753685</v>
+        <v>0.125006690621376</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1210332289338112</v>
+        <v>0.1260059177875519</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001288670813664794</v>
+        <v>0.0001414607540937141</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.005120603833347559</v>
+        <v>-0.0005938803660683334</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0596185065805912</v>
+        <v>-0.05574030429124832</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.04773762822151184</v>
+        <v>-0.03982974961400032</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.07956039905548096</v>
+        <v>-0.07892705500125885</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.04434989392757416</v>
+        <v>0.04241842404007912</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.005089069250971079</v>
+        <v>0.002915211021900177</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.01319545228034258</v>
+        <v>-0.01028415933251381</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.01372486725449562</v>
+        <v>-0.008692339994013309</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002067620633170009</v>
+        <v>0.001453100587241352</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01723578199744225</v>
+        <v>-0.01540807634592056</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001869803993031383</v>
+        <v>0.003404270857572556</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002080895705148578</v>
+        <v>0.001772193121723831</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.05486968532204628</v>
+        <v>0.05644931271672249</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.0002946470340248197</v>
+        <v>0.004849504679441452</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02142766118049622</v>
+        <v>0.02430876716971397</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.006123547907918692</v>
+        <v>0.002505343407392502</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.008328437805175781</v>
+        <v>-0.00629945145919919</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01454796548932791</v>
+        <v>0.01909855008125305</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.006568734999746084</v>
+        <v>0.007153032347559929</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.001470814808271825</v>
+        <v>-0.006346733309328556</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.01696771942079067</v>
+        <v>-0.01165284216403961</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.05950408801436424</v>
+        <v>0.05517290532588959</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.001640781410969794</v>
+        <v>-0.002549260854721069</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.04073986783623695</v>
+        <v>-0.0453333742916584</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.06723247468471527</v>
+        <v>-0.07090840488672256</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.005232886876910925</v>
+        <v>0.009427119046449661</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.01375276688486338</v>
+        <v>-0.01889663003385067</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.004137290641665459</v>
+        <v>-0.007515208330005407</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.06456706672906876</v>
+        <v>-0.06150929629802704</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.02031948231160641</v>
+        <v>-0.02682453766465187</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.03987634554505348</v>
+        <v>0.04538027197122574</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.03879967331886292</v>
+        <v>-0.03733296319842339</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.1235696822404861</v>
+        <v>0.1265918612480164</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.0279057715088129</v>
+        <v>-0.02575005404651165</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.008053045719861984</v>
+        <v>0.002672786824405193</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0132531626150012</v>
+        <v>0.01791369356215</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.02394602820277214</v>
+        <v>-0.02387281134724617</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.000786065764259547</v>
+        <v>-0.01122678723186255</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.002359618432819843</v>
+        <v>-0.00500467186793685</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.001667241333052516</v>
+        <v>-0.004697595722973347</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.0260645616799593</v>
+        <v>-0.03154682740569115</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.001557822804898024</v>
+        <v>-0.0005566061590798199</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.01789857819676399</v>
+        <v>-0.01624761708080769</v>
       </c>
     </row>
   </sheetData>
